--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_8.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-962332.1289918538</v>
+        <v>-924720.1509879217</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17416836.60718618</v>
+        <v>16750879.87194064</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484446</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9877627.304306723</v>
+        <v>9884314.790784983</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>262.5786860328446</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>133.1633729106734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>80.30791690032973</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>127.1620745092569</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>317.5946330757855</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>310.2757079128344</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>143.3627470649802</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1139,10 +1139,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>30.62655231132949</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>13.70414713991825</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1306,7 +1306,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>16.05512456153223</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>207.9464643705752</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>107.886288838553</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,10 +1427,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>173.0943338214809</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225813</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1591,10 +1591,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>81.0109880549457</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633413</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1765,7 +1765,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1774,16 +1774,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>18.05677735225751</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>183.849228834493</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507799978</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2056,10 +2056,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>172.6623007436949</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>113.72182167445</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2132,7 +2132,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>18.05677735225779</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2296,7 +2296,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>199.4521447952285</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>31.24391673888186</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2716,7 +2716,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225774</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>41.77118486549519</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225694</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3442,7 +3442,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934462</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3560,7 +3560,7 @@
         <v>240.3943693174059</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267658</v>
+        <v>342.7550702267644</v>
       </c>
       <c r="W38" t="n">
         <v>384.5711897043296</v>
@@ -3679,7 +3679,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432346</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934462</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3913,10 +3913,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277813</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934462</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4153,7 +4153,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934462</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>727.7053667416452</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>727.7053667416452</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>727.7053667416452</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>727.7053667416452</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>299.837937150853</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>299.837937150853</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.60694115808064</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.60694115808064</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>462.8678379893285</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>462.8678379893285</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>462.8678379893285</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>462.8678379893285</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>462.8678379893285</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>704.6711994884795</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1132.932096319727</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1561.192993150975</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>1730.347057904032</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1730.347057904032</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1510.279830777071</v>
       </c>
       <c r="U2" t="n">
-        <v>1134.24202645431</v>
+        <v>1510.279830777071</v>
       </c>
       <c r="V2" t="n">
-        <v>1134.24202645431</v>
+        <v>1147.662880710897</v>
       </c>
       <c r="W2" t="n">
-        <v>729.3865718653431</v>
+        <v>1146.847830162335</v>
       </c>
       <c r="X2" t="n">
-        <v>310.2441084446538</v>
+        <v>727.7053667416452</v>
       </c>
       <c r="Y2" t="n">
-        <v>175.7356509591251</v>
+        <v>727.7053667416452</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>540.7786861493735</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>434.3222249860157</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>339.231936132569</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>245.1115214595227</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>161.7276830756843</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>76.34259334186817</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>34.60694115808064</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>60.67061431853823</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>385.2289392847505</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>385.2289392847505</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>385.2289392847505</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>385.2289392847505</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>385.2289392847505</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>724.1521308800541</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1152.413027711302</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1580.67392454255</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1697.84670263689</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1634.391265085273</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1504.212621415874</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1327.876074415843</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1128.758556477842</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>943.4358022110359</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>788.5683664499159</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>662.0825872291366</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>439.2128461748023</v>
+        <v>778.029105222222</v>
       </c>
       <c r="C4" t="n">
-        <v>439.2128461748023</v>
+        <v>605.467393705447</v>
       </c>
       <c r="D4" t="n">
-        <v>439.2128461748023</v>
+        <v>605.467393705447</v>
       </c>
       <c r="E4" t="n">
-        <v>439.2128461748023</v>
+        <v>605.467393705447</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>428.7603396672031</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>263.1690646930308</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>123.2668903834053</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>34.60694115808064</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>34.60694115808064</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>34.60694115808064</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>452.8168229260417</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>881.0777197572895</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1309.338616588537</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1729.007865814319</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1730.347057904032</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>1730.347057904032</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1730.347057904032</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1571.105689202029</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>1571.105689202029</v>
       </c>
       <c r="U4" t="n">
-        <v>1435.405132103655</v>
+        <v>1571.105689202029</v>
       </c>
       <c r="V4" t="n">
-        <v>1148.449623974085</v>
+        <v>1442.659149293688</v>
       </c>
       <c r="W4" t="n">
-        <v>876.423219560377</v>
+        <v>1442.659149293688</v>
       </c>
       <c r="X4" t="n">
-        <v>631.0314648937895</v>
+        <v>1197.267394627101</v>
       </c>
       <c r="Y4" t="n">
-        <v>631.0314648937895</v>
+        <v>969.8477239412091</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>548.3728793740404</v>
+        <v>1153.221971308027</v>
       </c>
       <c r="C5" t="n">
-        <v>119.7912051113087</v>
+        <v>832.4193116355168</v>
       </c>
       <c r="D5" t="n">
-        <v>87.92182432615731</v>
+        <v>396.5095268099613</v>
       </c>
       <c r="E5" t="n">
-        <v>58.18748352485655</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1598.869320833163</v>
       </c>
       <c r="X5" t="n">
-        <v>1382.958573559295</v>
+        <v>1583.767261452878</v>
       </c>
       <c r="Y5" t="n">
-        <v>974.6724498589482</v>
+        <v>1175.481137752531</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1841.696154939793</v>
       </c>
       <c r="W7" t="n">
-        <v>1697.183430080417</v>
+        <v>1569.669750526085</v>
       </c>
       <c r="X7" t="n">
-        <v>1532.240118618369</v>
+        <v>1324.277995859497</v>
       </c>
       <c r="Y7" t="n">
-        <v>1304.820447932477</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1660.897535067192</v>
+        <v>1671.95961582883</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.795466291019</v>
+        <v>1637.857547052657</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.885681465464</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E8" t="n">
-        <v>1161.151340664163</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F8" t="n">
-        <v>733.283911073371</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>331.8860796966348</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>42.75592513985104</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>42.33913576699104</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>42.33913576699104</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>545.1163730000096</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>545.1163730000096</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>545.1163730000096</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>545.1163730000096</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1069.063178116524</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1593.009983233038</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>2116.956788349552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>2116.956788349552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2116.956788349552</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2116.956788349552</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2116.956788349552</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2116.956788349552</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2116.141737800989</v>
+        <v>1713.566561313561</v>
       </c>
       <c r="X8" t="n">
-        <v>2101.039678420704</v>
+        <v>1698.464501933276</v>
       </c>
       <c r="Y8" t="n">
-        <v>2087.1971055521</v>
+        <v>1694.218782273333</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>548.5108807582839</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>442.0544195949261</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>346.9641307414794</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>252.8437160684331</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>169.4598776845947</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>84.07478795077857</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>42.33913576699104</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>68.40280892744865</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>392.961133893661</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>916.9079390101751</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1064.459314034946</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1064.459314034946</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.459314034946</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.459314034946</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.459314034946</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1588.40611915146</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1705.5788972458</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1642.123459694183</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1511.944816024785</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1335.608269024753</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1136.490751086752</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>951.1679968199462</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>796.3005610588262</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>669.814781838047</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.8355848620973</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C10" t="n">
-        <v>948.8355848620973</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D10" t="n">
-        <v>782.95759206362</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E10" t="n">
-        <v>613.1995883143574</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F10" t="n">
-        <v>436.4925342761135</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G10" t="n">
-        <v>270.9012593019412</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>130.9990849923157</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>42.33913576699104</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>42.33913576699104</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>42.33913576699104</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>448.0379748148711</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>907.5218419957841</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1349.780645153429</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1769.44989437921</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2116.956788349552</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2116.956788349552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2095.538967054924</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2095.538967054924</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>2095.538967054924</v>
+        <v>2494.602160192524</v>
       </c>
       <c r="U10" t="n">
-        <v>2095.538967054924</v>
+        <v>2216.169159445629</v>
       </c>
       <c r="V10" t="n">
-        <v>1885.492033347272</v>
+        <v>1929.213651316059</v>
       </c>
       <c r="W10" t="n">
-        <v>1613.465628933564</v>
+        <v>1657.187246902351</v>
       </c>
       <c r="X10" t="n">
-        <v>1368.073874266976</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y10" t="n">
-        <v>1140.654203581084</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1731.684406739399</v>
+        <v>2524.205911056827</v>
       </c>
       <c r="C11" t="n">
-        <v>1622.708357407527</v>
+        <v>2086.06343824025</v>
       </c>
       <c r="D11" t="n">
-        <v>1622.708357407527</v>
+        <v>1650.153653414695</v>
       </c>
       <c r="E11" t="n">
-        <v>1188.933612565822</v>
+        <v>1216.37890857299</v>
       </c>
       <c r="F11" t="n">
-        <v>761.06618297503</v>
+        <v>788.5114789821977</v>
       </c>
       <c r="G11" t="n">
-        <v>359.6683515982938</v>
+        <v>387.1136476054616</v>
       </c>
       <c r="H11" t="n">
-        <v>70.53819704151017</v>
+        <v>97.98349304867783</v>
       </c>
       <c r="I11" t="n">
-        <v>70.53819704151017</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J11" t="n">
-        <v>505.7928844944281</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K11" t="n">
-        <v>1065.43662458648</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L11" t="n">
-        <v>1065.43662458648</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="M11" t="n">
-        <v>1065.43662458648</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="N11" t="n">
-        <v>1938.346812975169</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="O11" t="n">
-        <v>2811.257001363857</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P11" t="n">
-        <v>2811.257001363857</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q11" t="n">
-        <v>3357.755787322452</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R11" t="n">
-        <v>3526.909852075509</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S11" t="n">
-        <v>3443.257978259346</v>
+        <v>4794.683309974728</v>
       </c>
       <c r="T11" t="n">
-        <v>3223.190751132384</v>
+        <v>4574.616082847767</v>
       </c>
       <c r="U11" t="n">
-        <v>2963.968448449401</v>
+        <v>4315.393780164783</v>
       </c>
       <c r="V11" t="n">
-        <v>2963.968448449401</v>
+        <v>3952.77683009861</v>
       </c>
       <c r="W11" t="n">
-        <v>2559.112993860434</v>
+        <v>3777.934068662771</v>
       </c>
       <c r="X11" t="n">
-        <v>2139.970530439745</v>
+        <v>3358.791605242081</v>
       </c>
       <c r="Y11" t="n">
-        <v>1731.684406739399</v>
+        <v>2950.505481541735</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.7099420328029</v>
+        <v>603.7384486671107</v>
       </c>
       <c r="C12" t="n">
-        <v>470.2534808694452</v>
+        <v>497.2819875037529</v>
       </c>
       <c r="D12" t="n">
-        <v>375.1631920159985</v>
+        <v>402.1916986503062</v>
       </c>
       <c r="E12" t="n">
-        <v>281.0427773429522</v>
+        <v>308.0712839772599</v>
       </c>
       <c r="F12" t="n">
-        <v>197.6589389591138</v>
+        <v>224.6874455934215</v>
       </c>
       <c r="G12" t="n">
-        <v>112.2738492252977</v>
+        <v>139.3023558596054</v>
       </c>
       <c r="H12" t="n">
-        <v>70.53819704151017</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I12" t="n">
-        <v>96.60187020196777</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J12" t="n">
-        <v>421.1601951681801</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K12" t="n">
-        <v>1075.866241793904</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L12" t="n">
-        <v>1075.866241793904</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M12" t="n">
-        <v>1075.866241793904</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N12" t="n">
-        <v>1075.866241793904</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O12" t="n">
-        <v>1075.866241793904</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P12" t="n">
-        <v>1075.866241793904</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q12" t="n">
-        <v>1616.605180425979</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R12" t="n">
-        <v>1733.777958520319</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="S12" t="n">
-        <v>1670.322520968702</v>
+        <v>1697.35102760301</v>
       </c>
       <c r="T12" t="n">
-        <v>1540.143877299304</v>
+        <v>1567.172383933611</v>
       </c>
       <c r="U12" t="n">
-        <v>1363.807330299272</v>
+        <v>1390.83583693358</v>
       </c>
       <c r="V12" t="n">
-        <v>1164.689812361271</v>
+        <v>1191.718318995579</v>
       </c>
       <c r="W12" t="n">
-        <v>979.3670580944654</v>
+        <v>1006.395564728773</v>
       </c>
       <c r="X12" t="n">
-        <v>824.4996223333453</v>
+        <v>851.5281289676531</v>
       </c>
       <c r="Y12" t="n">
-        <v>698.0138431125661</v>
+        <v>725.0423497468738</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>921.0342341184414</v>
+        <v>1176.624864287699</v>
       </c>
       <c r="C13" t="n">
-        <v>748.4725226016664</v>
+        <v>1004.063152770924</v>
       </c>
       <c r="D13" t="n">
-        <v>582.5945298031891</v>
+        <v>838.1851599724469</v>
       </c>
       <c r="E13" t="n">
-        <v>412.8365260539263</v>
+        <v>668.4271562231842</v>
       </c>
       <c r="F13" t="n">
-        <v>236.1294720156825</v>
+        <v>491.7201021849403</v>
       </c>
       <c r="G13" t="n">
-        <v>70.53819704151017</v>
+        <v>326.128827210768</v>
       </c>
       <c r="H13" t="n">
-        <v>70.53819704151017</v>
+        <v>186.2266529011425</v>
       </c>
       <c r="I13" t="n">
-        <v>70.53819704151017</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J13" t="n">
-        <v>157.1178822062</v>
+        <v>184.1463888405077</v>
       </c>
       <c r="K13" t="n">
-        <v>431.8763367773357</v>
+        <v>458.9048434116433</v>
       </c>
       <c r="L13" t="n">
-        <v>850.0862185452967</v>
+        <v>877.1147251796043</v>
       </c>
       <c r="M13" t="n">
-        <v>1309.57008572621</v>
+        <v>1336.598592360517</v>
       </c>
       <c r="N13" t="n">
-        <v>1751.828888883854</v>
+        <v>1778.857395518162</v>
       </c>
       <c r="O13" t="n">
-        <v>2171.498138109636</v>
+        <v>2198.526644743943</v>
       </c>
       <c r="P13" t="n">
-        <v>2519.005032079978</v>
+        <v>2546.033538714285</v>
       </c>
       <c r="Q13" t="n">
-        <v>2687.19780694431</v>
+        <v>2714.226313578617</v>
       </c>
       <c r="R13" t="n">
-        <v>2687.19780694431</v>
+        <v>2692.808492283989</v>
       </c>
       <c r="S13" t="n">
-        <v>2668.958637901625</v>
+        <v>2533.567123581985</v>
       </c>
       <c r="T13" t="n">
-        <v>2423.079191480081</v>
+        <v>2287.687677160441</v>
       </c>
       <c r="U13" t="n">
-        <v>2144.646190733186</v>
+        <v>2009.254676413546</v>
       </c>
       <c r="V13" t="n">
-        <v>1857.690682603616</v>
+        <v>1722.299168283976</v>
       </c>
       <c r="W13" t="n">
-        <v>1585.664278189908</v>
+        <v>1450.272763870268</v>
       </c>
       <c r="X13" t="n">
-        <v>1340.27252352332</v>
+        <v>1368.443483006686</v>
       </c>
       <c r="Y13" t="n">
-        <v>1112.852852837429</v>
+        <v>1368.443483006686</v>
       </c>
     </row>
     <row r="14">
@@ -5264,13 +5264,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5282,43 +5282,43 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.168637987178</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423625</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993931</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.389162827328</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785922</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538979</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595854</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912871</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846697</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257731</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
         <v>2955.199618136697</v>
@@ -5334,16 +5334,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
         <v>143.9964924545671</v>
@@ -5355,7 +5355,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
         <v>1107.588885023173</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>970.9960463903951</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="C16" t="n">
-        <v>798.4343348736201</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D16" t="n">
-        <v>632.5563420751428</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E16" t="n">
-        <v>462.7983383258801</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F16" t="n">
-        <v>286.0912842876363</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>120.5000093134639</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>188.8405254354694</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
         <v>463.598980006605</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2194.60800300514</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1635.626090461862</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1390.234335795274</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1162.814665109382</v>
+        <v>1023.868854046629</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5522,43 +5522,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423625</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423625</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993931</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.389162827328</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785922</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538979</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5571,16 +5571,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
         <v>143.9964924545671</v>
@@ -5592,7 +5592,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
         <v>1107.588885023173</v>
@@ -5656,22 +5656,22 @@
         <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181458</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>496.414238779902</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057296</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961042</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8405254354694</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
         <v>463.598980006605</v>
@@ -5683,37 +5683,37 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2292.381813755407</v>
       </c>
       <c r="U19" t="n">
-        <v>2292.381813755403</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V19" t="n">
-        <v>2005.426305625833</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W19" t="n">
-        <v>1733.399901212125</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1488.008146545537</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
         <v>1373.137619601648</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5756,46 +5756,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>970.9960463903949</v>
+        <v>875.8255515988633</v>
       </c>
       <c r="C22" t="n">
-        <v>798.4343348736198</v>
+        <v>703.2638400820882</v>
       </c>
       <c r="D22" t="n">
-        <v>632.5563420751432</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E22" t="n">
-        <v>462.7983383258804</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F22" t="n">
-        <v>286.0912842876366</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G22" t="n">
-        <v>120.5000093134642</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5923,37 +5923,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176951</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755406</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008511</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>1812.482000084038</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461861</v>
+        <v>1540.45559567033</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795274</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.814665109382</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5999,16 +5999,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883917</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
         <v>780.1951658309357</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477109</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130894</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2517.485965445823</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2239.052964698928</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1952.097456569358</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1680.07105215565</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1434.679297489062</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
         <v>614.3171730324584</v>
@@ -6686,40 +6686,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
         <v>444.5591692831957</v>
@@ -6883,16 +6883,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130894</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.801834709349</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
         <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
         <v>1617.386921419177</v>
@@ -6923,37 +6923,37 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>306.120802776629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>306.120802776629</v>
+        <v>903.2906059188114</v>
       </c>
       <c r="L35" t="n">
-        <v>306.120802776629</v>
+        <v>1978.350572171671</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>3135.398407382222</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>3135.398407382222</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>4115.578073952528</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q35" t="n">
         <v>4943.887948785924</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7075,16 +7075,16 @@
         <v>910.3590448886291</v>
       </c>
       <c r="D37" t="n">
-        <v>760.8807595030279</v>
+        <v>760.880759503028</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666413</v>
+        <v>607.5224631666414</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412736</v>
+        <v>447.2151165412737</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799774</v>
+        <v>298.0235489799775</v>
       </c>
       <c r="H37" t="n">
         <v>174.5210820832282</v>
@@ -7108,16 +7108,16 @@
         <v>1863.918298289923</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751065</v>
+        <v>2299.660900751064</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956767</v>
+        <v>2663.241147956766</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056459</v>
+        <v>2847.507276056458</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174706</v>
+        <v>2842.489162174707</v>
       </c>
       <c r="S37" t="n">
         <v>2699.647500885579</v>
@@ -7126,7 +7126,7 @@
         <v>2470.16776187691</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542891</v>
+        <v>2208.134468542892</v>
       </c>
       <c r="V37" t="n">
         <v>1937.578667826198</v>
@@ -7151,25 +7151,25 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D38" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197248</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581717</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7178,46 +7178,46 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="M38" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="N38" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="O38" t="n">
-        <v>3422.411315910079</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P38" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q38" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673522</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403415</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X38" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="39">
@@ -7245,13 +7245,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K39" t="n">
         <v>1102.894748428211</v>
@@ -7309,25 +7309,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716797</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F40" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882658</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7354,7 +7354,7 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
@@ -7363,7 +7363,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
         <v>1932.884531231236</v>
@@ -7372,7 +7372,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
         <v>1237.245823703677</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D41" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835856</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197248</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581717</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
@@ -7415,46 +7415,46 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="M41" t="n">
-        <v>3599.279484550324</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="N41" t="n">
-        <v>4162.682333079242</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="O41" t="n">
-        <v>4162.682333079242</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079242</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037837</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="42">
@@ -7482,13 +7482,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K42" t="n">
         <v>1102.894748428211</v>
@@ -7546,25 +7546,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H43" t="n">
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7582,16 +7582,16 @@
         <v>1859.224161694961</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156102</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
         <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
@@ -7600,7 +7600,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V43" t="n">
         <v>1932.884531231236</v>
@@ -7609,7 +7609,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y43" t="n">
         <v>1237.245823703677</v>
@@ -7628,13 +7628,13 @@
         <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835857</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
@@ -7652,22 +7652,22 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="M44" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="N44" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="O44" t="n">
-        <v>3422.411315910079</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P44" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q44" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R44" t="n">
         <v>4878.335183790891</v>
@@ -7685,13 +7685,13 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="45">
@@ -7786,52 +7786,52 @@
         <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
         <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463119</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850156</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
         <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758678</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823633</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856843</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O46" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
         <v>2465.473625281949</v>
@@ -7840,7 +7840,7 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W46" t="n">
         <v>1677.257834230404</v>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>432.586764476008</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>244.2458196961121</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>432.5867644760081</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>432.5867644760081</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>342.3466581770743</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>432.5867644760081</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>432.5867644760081</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,19 +8140,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>432.5867644760079</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>432.5867644760081</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.352719282538374</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>507.8557951848672</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>529.239197087388</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>529.239197087388</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>529.239197087388</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>529.239197087388</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>149.0417929543141</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>529.239197087388</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,13 +8608,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>409.7968071190708</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>464.1251183645587</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,7 +8690,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>565.2967071636892</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,13 +8699,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>881.7274630188772</v>
+        <v>996.9910187763885</v>
       </c>
       <c r="O11" t="n">
-        <v>881.7274630188772</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>92.22506899525524</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352428</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9404,13 +9404,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>314.2706063049986</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9659,7 +9659,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>809.1209754020524</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10604,7 +10604,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10826,7 +10826,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763885</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497274</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11063,19 +11063,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763885</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>569.0937863928471</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763885</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497093</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>68.31096090235593</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>23.66016697837131</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22708,10 +22708,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22759,10 +22759,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>156.9238785390169</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>325.8747592498579</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>227.7125662215961</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627252</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>161.926849064976</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.755004851662334e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>41.2962451445398</v>
       </c>
     </row>
     <row r="17">
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.575699570821598e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>102.9863699957308</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>111.4236523045828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>120.4463752142714</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>84.63380825304529</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>201.6494670918341</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627264</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>4.209965709378594e-13</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>5.826450433232822e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>855556.932211538</v>
+        <v>694126.9974636652</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>855556.932211538</v>
+        <v>865534.1338576719</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>859861.8564053106</v>
+        <v>865534.1338576719</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>668021.451664745</v>
+        <v>840440.1767239432</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>870384.7481317358</v>
+        <v>870384.7481317363</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>870384.7481317362</v>
+        <v>870384.7481317364</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>870384.7481317363</v>
+        <v>870384.7481317364</v>
       </c>
     </row>
     <row r="9">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>107229.4639780817</v>
+        <v>86355.91049734382</v>
       </c>
       <c r="C2" t="n">
         <v>107229.4639780817</v>
@@ -26320,13 +26320,13 @@
         <v>107229.4639780817</v>
       </c>
       <c r="E2" t="n">
-        <v>80872.77929248485</v>
+        <v>101746.3327732227</v>
       </c>
       <c r="F2" t="n">
         <v>105371.5168274705</v>
       </c>
       <c r="G2" t="n">
-        <v>105371.5168274704</v>
+        <v>105371.5168274705</v>
       </c>
       <c r="H2" t="n">
         <v>105371.5168274705</v>
@@ -26347,10 +26347,10 @@
         <v>107229.4639780818</v>
       </c>
       <c r="N2" t="n">
-        <v>107229.4639780817</v>
+        <v>107229.4639780816</v>
       </c>
       <c r="O2" t="n">
-        <v>107229.4639780817</v>
+        <v>107229.4639780816</v>
       </c>
       <c r="P2" t="n">
         <v>107229.4639780817</v>
@@ -26363,43 +26363,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>144969.7742714932</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>75898.49296044775</v>
       </c>
       <c r="D3" t="n">
-        <v>32598.54956978534</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>105245.2414652922</v>
+        <v>164835.5352679185</v>
       </c>
       <c r="F3" t="n">
-        <v>113617.0259238705</v>
+        <v>16812.40227510031</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>113183.7314045606</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>60463.0632945897</v>
       </c>
       <c r="L3" t="n">
-        <v>26560.2147544234</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>100830.0540941887</v>
+        <v>150566.2690088498</v>
       </c>
       <c r="N3" t="n">
-        <v>82750.13805526332</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193696.6796511644</v>
+        <v>132569.6247519472</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="D4" t="n">
-        <v>173984.0524711525</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="E4" t="n">
-        <v>41876.27333020718</v>
+        <v>52684.68919743955</v>
       </c>
       <c r="F4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962276</v>
@@ -26445,13 +26445,13 @@
         <v>54561.82510962275</v>
       </c>
       <c r="L4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="M4" t="n">
-        <v>59904.18292625602</v>
+        <v>59904.18292625603</v>
       </c>
       <c r="N4" t="n">
-        <v>68372.72551926984</v>
+        <v>68372.72551926989</v>
       </c>
       <c r="O4" t="n">
         <v>68372.72551926989</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>59928.87528014128</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>65805.34318291319</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>53609.02975154773</v>
+        <v>74150.69479362154</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579247</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579247</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,10 +26503,10 @@
         <v>79083.15853826067</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="P5" t="n">
         <v>75515.6147260897</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-288083.304470015</v>
+        <v>-251373.2832247471</v>
       </c>
       <c r="C6" t="n">
-        <v>-145892.0038103051</v>
+        <v>-190891.7477899129</v>
       </c>
       <c r="D6" t="n">
-        <v>-165158.4812457693</v>
+        <v>-114993.2548294652</v>
       </c>
       <c r="E6" t="n">
-        <v>-119857.7652545622</v>
+        <v>-189993.1256258177</v>
       </c>
       <c r="F6" t="n">
-        <v>-140525.5728118153</v>
+        <v>-43744.17350242777</v>
       </c>
       <c r="G6" t="n">
-        <v>-26908.5468879448</v>
+        <v>-26931.77122732743</v>
       </c>
       <c r="H6" t="n">
-        <v>-26908.54688794489</v>
+        <v>-26931.77122732743</v>
       </c>
       <c r="I6" t="n">
-        <v>-26908.5468879448</v>
+        <v>-26931.77122732744</v>
       </c>
       <c r="J6" t="n">
-        <v>-137923.012232935</v>
+        <v>-140115.5026318881</v>
       </c>
       <c r="K6" t="n">
-        <v>-26908.54688794479</v>
+        <v>-87394.83452191713</v>
       </c>
       <c r="L6" t="n">
-        <v>-53468.76164236819</v>
+        <v>-26931.77122732744</v>
       </c>
       <c r="M6" t="n">
-        <v>-132587.9315806237</v>
+        <v>-182324.1464952848</v>
       </c>
       <c r="N6" t="n">
-        <v>-119409.0143225412</v>
+        <v>-36658.87626727796</v>
       </c>
       <c r="O6" t="n">
-        <v>-36658.87626727793</v>
+        <v>-36658.87626727796</v>
       </c>
       <c r="P6" t="n">
-        <v>-36658.87626727791</v>
+        <v>-36658.87626727787</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>432.586764476008</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>529.239197087388</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>881.7274630188772</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -27009,43 +27009,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>432.586764476008</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>234.928442131849</v>
       </c>
       <c r="D4" t="n">
-        <v>104.9433395672837</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>352.4882659314891</v>
+        <v>552.0685893398659</v>
       </c>
       <c r="F4" t="n">
-        <v>396.5330403658675</v>
+        <v>58.67670743702251</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>432.586764476008</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>234.928442131849</v>
       </c>
       <c r="L4" t="n">
-        <v>104.9433395672837</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>352.4882659314891</v>
+        <v>552.0685893398659</v>
       </c>
       <c r="N4" t="n">
-        <v>337.8563329288454</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>432.586764476008</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>234.928442131849</v>
       </c>
       <c r="L4" t="n">
-        <v>104.9433395672837</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>352.4882659314891</v>
+        <v>552.0685893398659</v>
       </c>
       <c r="N4" t="n">
-        <v>396.5330403658675</v>
+        <v>58.67670743702251</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>353.7256138777028</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>271.0398895526697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27537,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>195.340753839096</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>116.1664150126255</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>104.675330873648</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>140.7232059832937</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27859,11 +27859,11 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>370.1803477317475</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>390.4991153234249</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>227.365527395797</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>76.13948867769861</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-6.144173769772319e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3.817562007254101e-12</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-5.434186145524531e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>3.582082778545252e-12</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>16.23571033874737</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874589</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W38" t="n">
         <v>16.23571033874737</v>
@@ -30654,7 +30654,7 @@
         <v>16.23571033874737</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874669</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P43" t="n">
         <v>16.23571033874737</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>432.586764476008</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>244.2458196961121</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>432.5867644760081</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>432.5867644760081</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>170.8626916697542</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>342.3466581770743</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>432.5867644760081</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>432.5867644760081</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>432.5867644760079</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>432.5867644760081</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.352719282538374</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>507.8557951848672</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>529.239197087388</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>529.239197087388</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>529.239197087388</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>529.239197087388</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>149.0417929543141</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>529.239197087388</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>409.7968071190708</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>464.1251183645587</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>565.2967071636892</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,19 +35419,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>881.7274630188772</v>
+        <v>996.9910187763885</v>
       </c>
       <c r="O11" t="n">
-        <v>881.7274630188772</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512938</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35650,13 +35650,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>92.22506899525524</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35890,7 +35890,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352428</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -36051,10 +36051,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956044</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36124,13 +36124,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36291,7 +36291,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512979</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>314.2706063049986</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36379,7 +36379,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36528,13 +36528,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>809.1209754020524</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37324,7 +37324,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37476,13 +37476,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763885</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37558,13 +37558,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497274</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37783,19 +37783,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763885</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>569.0937863928471</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37950,13 +37950,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900412</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763885</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497093</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.6899377778283</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K46" t="n">
         <v>293.7695028348439</v>
@@ -38187,7 +38187,7 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
